--- a/MainTop/на склад 24.12/на склад 24.12_объединенно_по_штрихкоду.xlsx
+++ b/MainTop/на склад 24.12/на склад 24.12_объединенно_по_штрихкоду.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\на склад 24.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\на склад 24.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1E063-6DC2-4EC0-8EB1-98E373918172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95E227-AAA3-41D4-BCFE-41E623BD2AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,11 +483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -828,14 +829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,732 +851,733 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>